--- a/dfa_states_formatted.xlsx
+++ b/dfa_states_formatted.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="149">
   <si>
     <t>Estados</t>
   </si>
@@ -23,27 +23,45 @@
     <t>T1</t>
   </si>
   <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>CHARSET</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>LETRA</t>
+  </si>
+  <si>
+    <t>RESERVADAS()</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
     <t>=</t>
   </si>
   <si>
     <t>T4</t>
   </si>
   <si>
-    <t>LETRA</t>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>&gt;</t>
   </si>
   <si>
     <t>T5</t>
   </si>
   <si>
-    <t>&lt;</t>
-  </si>
-  <si>
     <t>T6</t>
   </si>
   <si>
-    <t>&gt;</t>
-  </si>
-  <si>
     <t>T7</t>
   </si>
   <si>
@@ -65,7 +83,130 @@
     <t>T11</t>
   </si>
   <si>
-    <t>S[16, 1, 19, 4, 21, 6, 9, 11, 13]</t>
+    <t>O</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>'*'</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>T16</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>T17</t>
+  </si>
+  <si>
+    <t>'('</t>
+  </si>
+  <si>
+    <t>T40</t>
+  </si>
+  <si>
+    <t>')'</t>
+  </si>
+  <si>
+    <t>T41</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>T42</t>
+  </si>
+  <si>
+    <t>'.'</t>
+  </si>
+  <si>
+    <t>T43</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>T44</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>T45</t>
+  </si>
+  <si>
+    <t>T46</t>
+  </si>
+  <si>
+    <t>T47</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>T48</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>T49</t>
+  </si>
+  <si>
+    <t>T50</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>T51</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>T52</t>
+  </si>
+  <si>
+    <t>HOLA()</t>
+  </si>
+  <si>
+    <t>T53</t>
+  </si>
+  <si>
+    <t>S[64, 1, 66, 4, 68, 70, 7, 72, 74, 11, 76, 14, 78, 16, 81, 18, 83, 21, 85, 23, 87, 25, 28, 31, 33, 35, 38, 40, 44, 48, 52, 56, 59, 62]</t>
   </si>
   <si>
     <t>[2, 3]</t>
@@ -74,64 +215,250 @@
     <t>[5]</t>
   </si>
   <si>
-    <t>[7]</t>
-  </si>
-  <si>
-    <t>[17, 10]</t>
-  </si>
-  <si>
-    <t>[12, 14]</t>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>[12, 13, 15]</t>
+  </si>
+  <si>
+    <t>[15]</t>
+  </si>
+  <si>
+    <t>[17]</t>
+  </si>
+  <si>
+    <t>[19, 22, 29]</t>
+  </si>
+  <si>
+    <t>[24, 26]</t>
+  </si>
+  <si>
+    <t>[34]</t>
+  </si>
+  <si>
+    <t>[36]</t>
+  </si>
+  <si>
+    <t>[41]</t>
+  </si>
+  <si>
+    <t>[53]</t>
+  </si>
+  <si>
+    <t>[49]</t>
+  </si>
+  <si>
+    <t>[45]</t>
+  </si>
+  <si>
+    <t>[63]</t>
+  </si>
+  <si>
+    <t>[67]</t>
+  </si>
+  <si>
+    <t>[69]</t>
+  </si>
+  <si>
+    <t>[75]</t>
+  </si>
+  <si>
+    <t>[77]</t>
+  </si>
+  <si>
+    <t>[82, 86]</t>
+  </si>
+  <si>
+    <t>[84]</t>
+  </si>
+  <si>
+    <t>[88]</t>
+  </si>
+  <si>
+    <t>S[41]</t>
+  </si>
+  <si>
+    <t>[42]</t>
+  </si>
+  <si>
+    <t>S[32]</t>
+  </si>
+  <si>
+    <t>[89]</t>
+  </si>
+  <si>
+    <t>S[49]</t>
+  </si>
+  <si>
+    <t>[50]</t>
+  </si>
+  <si>
+    <t>S[73]</t>
+  </si>
+  <si>
+    <t>S[2, 3]</t>
+  </si>
+  <si>
+    <t>S[45]</t>
+  </si>
+  <si>
+    <t>[46]</t>
+  </si>
+  <si>
+    <t>S[53]</t>
+  </si>
+  <si>
+    <t>[54]</t>
+  </si>
+  <si>
+    <t>S[36]</t>
+  </si>
+  <si>
+    <t>[37]</t>
+  </si>
+  <si>
+    <t>S[15]</t>
+  </si>
+  <si>
+    <t>S[75]</t>
+  </si>
+  <si>
+    <t>S[77]</t>
+  </si>
+  <si>
+    <t>S[65, 79]</t>
+  </si>
+  <si>
+    <t>S[5]</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>S[88]</t>
+  </si>
+  <si>
+    <t>S[39, 60]</t>
+  </si>
+  <si>
+    <t>S[12, 13, 15]</t>
+  </si>
+  <si>
+    <t>S[71, 57]</t>
+  </si>
+  <si>
+    <t>S[8]</t>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
+    <t>S[84]</t>
+  </si>
+  <si>
+    <t>S[34]</t>
+  </si>
+  <si>
+    <t>S[82, 86]</t>
+  </si>
+  <si>
+    <t>S[67]</t>
+  </si>
+  <si>
+    <t>S[63]</t>
+  </si>
+  <si>
+    <t>S[19, 22, 29]</t>
+  </si>
+  <si>
+    <t>[30]</t>
   </si>
   <si>
     <t>[20]</t>
   </si>
   <si>
-    <t>[22]</t>
+    <t>S[69]</t>
+  </si>
+  <si>
+    <t>S[17]</t>
+  </si>
+  <si>
+    <t>S[24, 26]</t>
+  </si>
+  <si>
+    <t>[27]</t>
+  </si>
+  <si>
+    <t>S[42]</t>
+  </si>
+  <si>
+    <t>[43]</t>
+  </si>
+  <si>
+    <t>S[89]</t>
+  </si>
+  <si>
+    <t>S[50]</t>
+  </si>
+  <si>
+    <t>[51]</t>
+  </si>
+  <si>
+    <t>S[46]</t>
+  </si>
+  <si>
+    <t>[47]</t>
+  </si>
+  <si>
+    <t>S[54]</t>
+  </si>
+  <si>
+    <t>[55]</t>
+  </si>
+  <si>
+    <t>S[37]</t>
+  </si>
+  <si>
+    <t>S[80]</t>
+  </si>
+  <si>
+    <t>S[6]</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>S[61]</t>
+  </si>
+  <si>
+    <t>S[58]</t>
+  </si>
+  <si>
+    <t>S[9]</t>
+  </si>
+  <si>
+    <t>S[30]</t>
   </si>
   <si>
     <t>S[20]</t>
   </si>
   <si>
-    <t>[23]</t>
-  </si>
-  <si>
-    <t>S[7]</t>
-  </si>
-  <si>
-    <t>[8]</t>
-  </si>
-  <si>
-    <t>S[17, 10]</t>
-  </si>
-  <si>
-    <t>[18]</t>
-  </si>
-  <si>
-    <t>S[2, 3]</t>
-  </si>
-  <si>
-    <t>S[5]</t>
-  </si>
-  <si>
-    <t>S[22]</t>
-  </si>
-  <si>
-    <t>S[12, 14]</t>
-  </si>
-  <si>
-    <t>[15]</t>
-  </si>
-  <si>
-    <t>S[23]</t>
-  </si>
-  <si>
-    <t>S[8]</t>
-  </si>
-  <si>
-    <t>S[18]</t>
-  </si>
-  <si>
-    <t>S[15]</t>
+    <t>S[27]</t>
+  </si>
+  <si>
+    <t>S[43]</t>
+  </si>
+  <si>
+    <t>S[51]</t>
+  </si>
+  <si>
+    <t>S[47]</t>
+  </si>
+  <si>
+    <t>S[55]</t>
+  </si>
+  <si>
+    <t>S[10]</t>
   </si>
 </sst>
 </file>
@@ -192,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:CK48"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -218,40 +545,40 @@
         <v>4</v>
       </c>
       <c r="G1" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s" s="1">
         <v>5</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="I1" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="I1" t="s" s="1">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>8</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>9</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>10</v>
       </c>
-      <c r="N1" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>3</v>
-      </c>
-      <c r="P1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>11</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>3</v>
       </c>
       <c r="S1" t="s" s="1">
         <v>12</v>
@@ -263,172 +590,806 @@
         <v>14</v>
       </c>
       <c r="V1" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="W1" t="s" s="1">
         <v>15</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="X1" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="Y1" t="s" s="1">
         <v>16</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="AO1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="AP1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="AQ1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="AR1" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="AS1" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="AT1" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="AU1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="AV1" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="AW1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="AX1" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="AY1" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="AZ1" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="BA1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="BB1" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="BC1" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="BD1" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="BE1" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="BF1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="BG1" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="BH1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="BI1" t="s" s="1">
+        <v>41</v>
+      </c>
+      <c r="BJ1" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="BK1" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="BL1" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="BM1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="BN1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="BO1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="BP1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="BQ1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="BR1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="BS1" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="BT1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="BU1" t="s" s="1">
+        <v>41</v>
+      </c>
+      <c r="BV1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="BW1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="BX1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="BY1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="BZ1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="CA1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="CB1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="CC1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="CD1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="CE1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="CF1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="CG1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="CH1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="CI1" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="CJ1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="CK1" t="s" s="1">
+        <v>63</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>68</v>
+      </c>
+      <c r="M2" t="s">
+        <v>68</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="Q2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" t="s">
-        <v>19</v>
+        <v>70</v>
+      </c>
+      <c r="S2" t="s">
+        <v>71</v>
       </c>
       <c r="T2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="V2" t="s">
-        <v>24</v>
+        <v>71</v>
+      </c>
+      <c r="X2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>83</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>70</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="U3" t="s">
-        <v>26</v>
+        <v>87</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
+        <v>89</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" t="s">
-        <v>30</v>
-      </c>
-      <c r="R5" t="s">
-        <v>30</v>
+        <v>91</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
+        <v>93</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="W8" t="s">
-        <v>26</v>
+        <v>95</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>96</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" t="s">
-        <v>35</v>
-      </c>
-      <c r="R9" t="s">
-        <v>35</v>
+        <v>97</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>99</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" t="s">
-        <v>26</v>
+        <v>101</v>
+      </c>
+      <c r="P11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="S12" t="s">
-        <v>26</v>
+        <v>102</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13" t="s">
-        <v>26</v>
+        <v>103</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="CK16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18" t="s">
+        <v>68</v>
+      </c>
+      <c r="N18" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="BT19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>113</v>
+      </c>
+      <c r="CG21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>86</v>
+      </c>
+      <c r="CE23" t="s">
+        <v>90</v>
+      </c>
+      <c r="CI23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>116</v>
+      </c>
+      <c r="BP24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>117</v>
+      </c>
+      <c r="BL25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>119</v>
+      </c>
+      <c r="T26" t="s">
+        <v>120</v>
+      </c>
+      <c r="W26" t="s">
+        <v>90</v>
+      </c>
+      <c r="X26" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>119</v>
+      </c>
+      <c r="CI26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>122</v>
+      </c>
+      <c r="R28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>124</v>
+      </c>
+      <c r="CI29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>131</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>132</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>135</v>
+      </c>
+      <c r="CC36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" t="s">
+        <v>137</v>
+      </c>
+      <c r="G37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>138</v>
+      </c>
+      <c r="BJ38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>140</v>
+      </c>
+      <c r="H40" t="s">
+        <v>137</v>
+      </c>
+      <c r="J40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>142</v>
+      </c>
+      <c r="U42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>146</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>147</v>
+      </c>
+      <c r="BD47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>148</v>
+      </c>
+      <c r="K48" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
